--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4504,9 +4504,13 @@
         <v>46054</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="inlineStr"/>
+        <v>133</v>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Rian. João. Natália</t>
+        </is>
+      </c>
       <c r="E2" s="22" t="n"/>
       <c r="F2" s="6" t="n">
         <v>24</v>
@@ -4523,9 +4527,13 @@
         <v>46055</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="32" t="inlineStr"/>
+        <v>106</v>
+      </c>
+      <c r="D3" s="32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">João. Milca. Natália </t>
+        </is>
+      </c>
       <c r="E3" s="21" t="n"/>
       <c r="F3" s="6" t="n">
         <v>10</v>
@@ -4541,7 +4549,9 @@
       <c r="B4" s="19" t="n">
         <v>46056</v>
       </c>
-      <c r="C4" s="6" t="n"/>
+      <c r="C4" s="6" t="n">
+        <v>105</v>
+      </c>
       <c r="D4" s="32" t="n"/>
       <c r="E4" s="21" t="n"/>
       <c r="F4" s="6" t="n">
@@ -4558,7 +4568,9 @@
       <c r="B5" s="19" t="n">
         <v>46057</v>
       </c>
-      <c r="C5" s="6" t="n"/>
+      <c r="C5" s="6" t="n">
+        <v>105</v>
+      </c>
       <c r="D5" s="32" t="n"/>
       <c r="E5" s="21" t="n"/>
       <c r="F5" s="6" t="n">
@@ -4575,7 +4587,9 @@
       <c r="B6" s="19" t="n">
         <v>46058</v>
       </c>
-      <c r="C6" s="6" t="n"/>
+      <c r="C6" s="6" t="n">
+        <v>168</v>
+      </c>
       <c r="D6" s="32" t="n"/>
       <c r="E6" s="21" t="n"/>
       <c r="F6" s="6" t="n">
@@ -4592,14 +4606,16 @@
       <c r="B7" s="19" t="n">
         <v>46059</v>
       </c>
-      <c r="C7" s="6" t="n"/>
+      <c r="C7" s="6" t="n">
+        <v>189</v>
+      </c>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="21" t="n"/>
       <c r="F7" s="6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" s="37">
@@ -4609,10 +4625,17 @@
       <c r="B8" s="19" t="n">
         <v>46060</v>
       </c>
-      <c r="C8" s="6" t="n"/>
+      <c r="C8" s="6" t="n">
+        <v>242</v>
+      </c>
       <c r="D8" s="32" t="n"/>
       <c r="E8" s="21" t="n"/>
-      <c r="F8" s="6" t="n"/>
+      <c r="F8" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>95.8</v>
+      </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" s="37">
       <c r="A9" t="n">
@@ -4621,10 +4644,17 @@
       <c r="B9" s="19" t="n">
         <v>46061</v>
       </c>
-      <c r="C9" s="6" t="n"/>
+      <c r="C9" s="6" t="n">
+        <v>233</v>
+      </c>
       <c r="D9" s="32" t="n"/>
       <c r="E9" s="21" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="F9" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="G9" t="n">
+        <v>95.90000000000001</v>
+      </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" s="37">
       <c r="A10" t="n">
@@ -4928,7 +4958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -5384,7 +5414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
@@ -5833,7 +5863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -6289,7 +6319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
@@ -7420,7 +7450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
@@ -7879,7 +7909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
@@ -8333,7 +8363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
@@ -8781,7 +8811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
@@ -9235,7 +9265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
@@ -9683,7 +9713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B32"/>
@@ -10187,10 +10217,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="F3" t="n">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -10363,10 +10393,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3578</v>
+        <v>4859</v>
       </c>
       <c r="F14" t="n">
-        <v>1197</v>
+        <v>1319</v>
       </c>
       <c r="G14" t="n">
         <v>100</v>
